--- a/Executed serverless functions.xlsx
+++ b/Executed serverless functions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia/Cynthia WorkSpace/serverless performance variability/GitHub/Serverless_Variance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Code/Serverless_Variance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C9D95-364B-B141-9F0D-3FD8E179753C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ACF9CD-AFFF-A046-9E6F-E020AA619320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{33E6C842-A077-6043-9D6B-EC3D086C4246}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{33E6C842-A077-6043-9D6B-EC3D086C4246}"/>
   </bookViews>
   <sheets>
     <sheet name="selected functions-run" sheetId="4" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FunID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/anilkyelam/columbus/blob/master/archive/functions/adv_aws_rdrand.py</t>
   </si>
   <si>
@@ -1295,6 +1291,10 @@
   </si>
   <si>
     <t>https://github.com/Molecule-Serverless/serverless-faas-workbench/tree/296f5f2709b3e7b168db00473d0a28b8bf1c062f/aws/cpu-memory/video_processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56C6DBF-5161-3C43-A112-158E3C57352E}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1755,37 +1755,37 @@
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" ht="38">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="2" spans="1:21" ht="61" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
@@ -1815,7 +1815,7 @@
         <v>128</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1829,19 +1829,19 @@
     </row>
     <row r="3" spans="1:21" ht="58" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" s="2">
         <v>60</v>
@@ -1850,7 +1850,7 @@
         <v>256</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="4" spans="1:21" ht="56" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>128</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1899,19 +1899,19 @@
     </row>
     <row r="5" spans="1:21" ht="47" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="2">
         <v>60</v>
@@ -1920,7 +1920,7 @@
         <v>256</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1934,19 +1934,19 @@
     </row>
     <row r="6" spans="1:21" ht="106" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="2">
         <v>10</v>
@@ -1955,13 +1955,13 @@
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>2</v>
@@ -1984,19 +1984,19 @@
     </row>
     <row r="7" spans="1:21" ht="104" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -2005,13 +2005,13 @@
         <v>128</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>2</v>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="8" spans="1:21" ht="95" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -2052,13 +2052,13 @@
         <v>128</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>2</v>
@@ -2078,19 +2078,19 @@
     </row>
     <row r="9" spans="1:21" ht="90" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -2099,13 +2099,13 @@
         <v>128</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>2</v>
@@ -2125,19 +2125,19 @@
     </row>
     <row r="10" spans="1:21" ht="93" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -2146,13 +2146,13 @@
         <v>128</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>2</v>
@@ -2173,19 +2173,19 @@
     </row>
     <row r="11" spans="1:21" ht="90" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>2</v>
@@ -2214,19 +2214,19 @@
     </row>
     <row r="12" spans="1:21" ht="95" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -2235,13 +2235,13 @@
         <v>128</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>2</v>
@@ -2253,19 +2253,19 @@
     </row>
     <row r="13" spans="1:21" ht="98" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F13" s="2">
         <v>3</v>
@@ -2274,13 +2274,13 @@
         <v>128</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>2</v>
@@ -2292,19 +2292,19 @@
     </row>
     <row r="14" spans="1:21" ht="38">
       <c r="A14" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
@@ -2315,7 +2315,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>5</v>
@@ -2327,19 +2327,19 @@
     </row>
     <row r="15" spans="1:21" ht="81" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
@@ -2348,13 +2348,13 @@
         <v>128</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>5</v>
@@ -2372,19 +2372,19 @@
     </row>
     <row r="16" spans="1:21" ht="225" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F16" s="2">
         <v>20</v>
@@ -2393,13 +2393,13 @@
         <v>512</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>5</v>
@@ -2414,19 +2414,19 @@
     </row>
     <row r="17" spans="1:19" ht="162" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F17" s="2">
         <v>30</v>
@@ -2435,13 +2435,13 @@
         <v>512</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>5</v>
@@ -2459,19 +2459,19 @@
     </row>
     <row r="18" spans="1:19" ht="155" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F18" s="2">
         <v>10</v>
@@ -2480,13 +2480,13 @@
         <v>512</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>5</v>
@@ -2504,19 +2504,19 @@
     </row>
     <row r="19" spans="1:19" ht="158" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -2525,13 +2525,13 @@
         <v>512</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>5</v>
@@ -2548,19 +2548,19 @@
     </row>
     <row r="20" spans="1:19" ht="38">
       <c r="A20" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
@@ -2569,13 +2569,13 @@
         <v>128</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>6</v>
@@ -2587,19 +2587,19 @@
     </row>
     <row r="21" spans="1:19" ht="409.6">
       <c r="A21" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F21" s="2">
         <v>20</v>
@@ -2608,13 +2608,13 @@
         <v>128</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>6</v>
@@ -2626,19 +2626,19 @@
     </row>
     <row r="22" spans="1:19" ht="56" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F22" s="2">
         <v>3</v>
@@ -2647,13 +2647,13 @@
         <v>128</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>6</v>
@@ -2665,19 +2665,19 @@
     </row>
     <row r="23" spans="1:19" ht="107" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F23" s="5">
         <v>100</v>
@@ -2686,13 +2686,13 @@
         <v>512</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>2</v>
@@ -2711,19 +2711,19 @@
     </row>
     <row r="24" spans="1:19" ht="53" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>7</v>
@@ -2752,19 +2752,19 @@
     </row>
     <row r="25" spans="1:19" ht="113" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
@@ -2773,13 +2773,13 @@
         <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>7</v>
@@ -2793,19 +2793,19 @@
     </row>
     <row r="26" spans="1:19" ht="53" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="5">
         <v>60</v>
@@ -2814,7 +2814,7 @@
         <v>512</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>9</v>
@@ -2830,19 +2830,19 @@
     </row>
     <row r="27" spans="1:19" ht="57" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F27" s="2">
         <v>10</v>
@@ -2851,13 +2851,13 @@
         <v>128</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2872,19 @@
     </row>
     <row r="28" spans="1:19" ht="58" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F28" s="2">
         <v>10</v>
@@ -2893,13 +2893,13 @@
         <v>128</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2914,19 @@
     </row>
     <row r="29" spans="1:19" ht="121" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
@@ -2935,13 +2935,13 @@
         <v>128</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2956,19 @@
     </row>
     <row r="30" spans="1:19" ht="91" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
@@ -2977,13 +2977,13 @@
         <v>128</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>10</v>
@@ -2998,19 +2998,19 @@
     </row>
     <row r="31" spans="1:19" ht="77" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F31" s="2">
         <v>200</v>
@@ -3019,13 +3019,13 @@
         <v>256</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>11</v>
@@ -3040,19 +3040,19 @@
     </row>
     <row r="32" spans="1:19" ht="78" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F32" s="2">
         <v>20</v>
@@ -3061,13 +3061,13 @@
         <v>512</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>11</v>
@@ -3082,19 +3082,19 @@
     </row>
     <row r="33" spans="1:17" ht="87" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F33" s="2">
         <v>3</v>
@@ -3103,13 +3103,13 @@
         <v>128</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>11</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="34" spans="1:17" ht="72" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F34" s="2">
         <v>3</v>
@@ -3147,13 +3147,13 @@
         <v>128</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>11</v>
@@ -3165,19 +3165,19 @@
     </row>
     <row r="35" spans="1:17" ht="66" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F35" s="2">
         <v>10</v>
@@ -3186,13 +3186,13 @@
         <v>128</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>11</v>
@@ -3204,19 +3204,19 @@
     </row>
     <row r="36" spans="1:17" ht="79" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F36" s="2">
         <v>5</v>
@@ -3225,13 +3225,13 @@
         <v>128</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>11</v>
@@ -3243,19 +3243,19 @@
     </row>
     <row r="37" spans="1:17" ht="66" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F37" s="2">
         <v>5</v>
@@ -3264,13 +3264,13 @@
         <v>128</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>11</v>
@@ -3282,19 +3282,19 @@
     </row>
     <row r="38" spans="1:17" ht="88" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F38" s="2">
         <v>3</v>
@@ -3303,13 +3303,13 @@
         <v>128</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>11</v>
@@ -3321,19 +3321,19 @@
     </row>
     <row r="39" spans="1:17" ht="101" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F39" s="2">
         <v>5</v>
@@ -3342,13 +3342,13 @@
         <v>128</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>11</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="40" spans="1:17" ht="88" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F40" s="2">
         <v>5</v>
@@ -3381,13 +3381,13 @@
         <v>128</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>11</v>
@@ -3399,19 +3399,19 @@
     </row>
     <row r="41" spans="1:17" ht="66" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F41" s="2">
         <v>30</v>
@@ -3420,13 +3420,13 @@
         <v>128</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>12</v>
@@ -3438,19 +3438,19 @@
     </row>
     <row r="42" spans="1:17" ht="78" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F42" s="2">
         <v>10</v>
@@ -3459,13 +3459,13 @@
         <v>128</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>12</v>
@@ -3477,19 +3477,19 @@
     </row>
     <row r="43" spans="1:17" ht="100" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F43" s="2">
         <v>60</v>
@@ -3498,13 +3498,13 @@
         <v>1024</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>12</v>
@@ -3516,19 +3516,19 @@
     </row>
     <row r="44" spans="1:17" ht="82" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F44" s="2">
         <v>60</v>
@@ -3537,13 +3537,13 @@
         <v>1024</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>12</v>
@@ -3555,19 +3555,19 @@
     </row>
     <row r="45" spans="1:17" ht="177" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F45" s="2">
         <v>600</v>
@@ -3576,13 +3576,13 @@
         <v>512</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>12</v>
@@ -3594,19 +3594,19 @@
     </row>
     <row r="46" spans="1:17" ht="108" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F46" s="2">
         <v>3</v>
@@ -3615,13 +3615,13 @@
         <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>12</v>
@@ -3633,19 +3633,19 @@
     </row>
     <row r="47" spans="1:17" ht="89" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F47" s="2">
         <v>60</v>
@@ -3654,13 +3654,13 @@
         <v>128</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>12</v>
@@ -3672,19 +3672,19 @@
     </row>
     <row r="48" spans="1:17" ht="110" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F48" s="2">
         <v>10</v>
@@ -3693,13 +3693,13 @@
         <v>256</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>12</v>
@@ -3711,19 +3711,19 @@
     </row>
     <row r="49" spans="1:15" ht="76" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F49" s="2">
         <v>60</v>
@@ -3732,13 +3732,13 @@
         <v>256</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>14</v>
@@ -3750,19 +3750,19 @@
     </row>
     <row r="50" spans="1:15" ht="80" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F50" s="2">
         <v>120</v>
@@ -3771,13 +3771,13 @@
         <v>512</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>14</v>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="51" spans="1:15" ht="113" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F51" s="2">
         <v>10</v>
@@ -3810,13 +3810,13 @@
         <v>1024</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>14</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="52" spans="1:15" ht="57">
       <c r="A52" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F52" s="2">
         <v>60</v>
@@ -3849,13 +3849,13 @@
         <v>256</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>16</v>
@@ -3867,19 +3867,19 @@
     </row>
     <row r="53" spans="1:15" ht="57">
       <c r="A53" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F53" s="2">
         <v>60</v>
@@ -3888,13 +3888,13 @@
         <v>256</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>16</v>
@@ -3906,19 +3906,19 @@
     </row>
     <row r="54" spans="1:15" ht="57">
       <c r="A54" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F54" s="2">
         <v>60</v>
@@ -3927,13 +3927,13 @@
         <v>1024</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>16</v>
@@ -3945,19 +3945,19 @@
     </row>
     <row r="55" spans="1:15" ht="326" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F55" s="2">
         <v>3</v>
@@ -3966,13 +3966,13 @@
         <v>128</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>17</v>
@@ -3984,19 +3984,19 @@
     </row>
     <row r="56" spans="1:15" ht="57">
       <c r="A56" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="D56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
@@ -4005,13 +4005,13 @@
         <v>128</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>17</v>
@@ -4023,19 +4023,19 @@
     </row>
     <row r="57" spans="1:15" ht="57">
       <c r="A57" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
@@ -4044,13 +4044,13 @@
         <v>128</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>17</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="58" spans="1:15" ht="57">
       <c r="A58" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F58" s="2">
         <v>3</v>
@@ -4083,13 +4083,13 @@
         <v>128</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>17</v>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="59" spans="1:15" ht="57">
       <c r="A59" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>21</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F59" s="2">
         <v>10</v>
@@ -4122,13 +4122,13 @@
         <v>128</v>
       </c>
       <c r="H59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>17</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="60" spans="1:15" ht="57">
       <c r="A60" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>21</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F60" s="2">
         <v>30</v>
@@ -4161,13 +4161,13 @@
         <v>1024</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>17</v>
@@ -4179,19 +4179,19 @@
     </row>
     <row r="61" spans="1:15" ht="57">
       <c r="A61" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F61" s="2">
         <v>3</v>
@@ -4200,13 +4200,13 @@
         <v>128</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>17</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="62" spans="1:15" ht="57">
       <c r="A62" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F62" s="2">
         <v>5</v>
@@ -4239,13 +4239,13 @@
         <v>128</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>17</v>
@@ -4257,19 +4257,19 @@
     </row>
     <row r="63" spans="1:15" ht="96" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F63" s="2">
         <v>5</v>
@@ -4278,13 +4278,13 @@
         <v>128</v>
       </c>
       <c r="H63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>17</v>
@@ -4296,19 +4296,19 @@
     </row>
     <row r="64" spans="1:15" ht="107" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="D64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
@@ -4317,11 +4317,11 @@
         <v>128</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>18</v>
@@ -4333,19 +4333,19 @@
     </row>
     <row r="65" spans="1:15" ht="120" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F65" s="2">
         <v>6</v>
@@ -4354,13 +4354,13 @@
         <v>1024</v>
       </c>
       <c r="H65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>19</v>
@@ -4372,19 +4372,19 @@
     </row>
     <row r="66" spans="1:15" ht="57">
       <c r="A66" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F66" s="2">
         <v>10</v>
@@ -4393,13 +4393,13 @@
         <v>512</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>19</v>
